--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3864.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3864.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.011796649780465</v>
+        <v>4.165316581726074</v>
       </c>
       <c r="B1">
-        <v>3.500225525675046</v>
+        <v>5.136908054351807</v>
       </c>
       <c r="C1">
-        <v>3.657840498155806</v>
+        <v>4.227310180664062</v>
       </c>
       <c r="D1">
-        <v>2.23644338799097</v>
+        <v>5.021109104156494</v>
       </c>
       <c r="E1">
-        <v>0.7792045544462904</v>
+        <v>4.630776405334473</v>
       </c>
     </row>
   </sheetData>
